--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t>0x81</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>Command/Response</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>Acceptable range 56.5 to 60.5V (as per datasheet)</t>
+  </si>
+  <si>
+    <t>Overvoltage Protection?</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -255,11 +264,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,9 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,6 +336,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +636,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,27 +663,27 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -660,18 +718,18 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -727,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="N8" s="3"/>
@@ -770,14 +828,14 @@
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="4"/>
@@ -798,14 +856,14 @@
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N11" s="4"/>
@@ -826,14 +884,14 @@
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N12" s="4"/>
@@ -854,14 +912,14 @@
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N13" s="4"/>
@@ -882,14 +940,14 @@
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N14" s="4"/>
@@ -910,14 +968,14 @@
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N15" s="4"/>
@@ -938,14 +996,14 @@
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="N16" s="4"/>
@@ -966,14 +1024,14 @@
       <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N17" s="4"/>
@@ -994,14 +1052,14 @@
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N18" s="4"/>
@@ -1022,14 +1080,14 @@
       <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N19" s="4"/>
@@ -1050,14 +1108,14 @@
       <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="9" t="s">
         <v>41</v>
       </c>
       <c r="N20" s="3"/>
@@ -1066,25 +1124,25 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
@@ -1113,19 +1171,19 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="M24" s="10" t="s">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="M24" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1158,16 +1216,16 @@
       <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="10" t="s">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="M26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1184,40 +1242,44 @@
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="12" t="s">
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="M27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="M28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="3"/>
+      <c r="F28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="M28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
@@ -1232,27 +1294,61 @@
       <c r="G29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="M29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="H24:K24"/>
@@ -1263,15 +1359,6 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t>0x81</t>
   </si>
@@ -110,15 +110,6 @@
     <t>0x03</t>
   </si>
   <si>
-    <t>Default Output Voltage</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Default Output Current</t>
-  </si>
-  <si>
     <t>Baud Rate 125kbps</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>Receive ACK:</t>
   </si>
   <si>
-    <t>Identical frame to request</t>
-  </si>
-  <si>
     <t xml:space="preserve"> /1024</t>
   </si>
   <si>
@@ -167,12 +155,6 @@
     <t>A * 30</t>
   </si>
   <si>
-    <t>Non-volatile, persistent after cold reset</t>
-  </si>
-  <si>
-    <t>Temporary for a little over 60 seconds, then reset to default</t>
-  </si>
-  <si>
     <t>0x1081807E</t>
   </si>
   <si>
@@ -191,14 +173,241 @@
     <t>Acceptable range 56.5 to 60.5V (as per datasheet)</t>
   </si>
   <si>
-    <t>Overvoltage Protection?</t>
+    <t>0x21</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Mirrors transmitted frame</t>
+  </si>
+  <si>
+    <t>Set value is likely out of range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure what this is? </t>
+  </si>
+  <si>
+    <t>0x83</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>Unknown- normally zero</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>Unknown frame</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On-line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Output Voltage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On-line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Current Limit</t>
+    </r>
+  </si>
+  <si>
+    <t>The rectifier can operate in two states:</t>
+  </si>
+  <si>
+    <t>CAN communication time-out is approximately 60 seconds. i.e. if you stop sending valid CAN messages to the rectifier, the rectifier will switch to Off-line/Default values in approximately 60 seconds.</t>
+  </si>
+  <si>
+    <t>Acceptable range 48 to 58.5V in 0.1V steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptable range 41.5 to 58.5V in 0.1V steps </t>
+  </si>
+  <si>
+    <t>Acceptable range 0 to 60A in 0.1A steps</t>
+  </si>
+  <si>
+    <r>
+      <t>Overvoltage Protection? (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Untested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Off-line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is when there is no CAN communication (i.e. standalone operation). This occurs on power-up or if CAN communication has timed-out (Orange LED slowly blinking).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On-line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> values are only valid when CAN communication is present (Orange LED not blinking). These values are volatile and reset to default on loss of CAN comms.</t>
+    </r>
+  </si>
+  <si>
+    <t>This output current appears more accurate (on my single unit/sample)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Off-line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Default O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utput Current Limit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Off-line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Default Ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tput Voltage</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +419,26 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,9 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,6 +570,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,6 +580,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +889,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,43 +907,43 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="A3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -755,38 +1008,38 @@
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="9" t="s">
-        <v>43</v>
+      <c r="M8" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -811,34 +1064,38 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
@@ -848,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -857,14 +1114,14 @@
         <v>15</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="9" t="s">
-        <v>41</v>
+      <c r="M11" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -876,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -885,14 +1142,14 @@
         <v>15</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="9" t="s">
-        <v>41</v>
+      <c r="M12" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -904,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -913,14 +1170,14 @@
         <v>15</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="9" t="s">
-        <v>41</v>
+      <c r="M13" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -932,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -941,14 +1198,14 @@
         <v>15</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="9" t="s">
-        <v>41</v>
+      <c r="M14" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -960,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -969,14 +1226,14 @@
         <v>15</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="9" t="s">
-        <v>41</v>
+      <c r="M15" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -988,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -997,14 +1254,14 @@
         <v>15</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="9" t="s">
-        <v>42</v>
+      <c r="M16" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1016,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1025,14 +1282,14 @@
         <v>15</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="9" t="s">
-        <v>41</v>
+      <c r="M17" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1044,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1053,14 +1310,14 @@
         <v>15</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="9" t="s">
-        <v>41</v>
+      <c r="M18" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1072,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -1081,14 +1338,14 @@
         <v>15</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="9" t="s">
-        <v>41</v>
+      <c r="M19" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1096,189 +1353,195 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="F21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>3</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H25" s="1">
         <v>4</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I25" s="1">
         <v>5</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J25" s="1">
         <v>6</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K25" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D24" s="15" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="M24" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-      <c r="M26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="M27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="M26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="M28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>54</v>
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="M28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1286,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1295,70 +1558,184 @@
         <v>15</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
-      <c r="M29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" s="3"/>
+      <c r="M29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
+      <c r="M30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="M31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="M32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="M34" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+      <c r="M35" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>40</v>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H27:K27"/>
+  <mergeCells count="23">
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
     <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
